--- a/data/TOT elaboración propia INDEC (1986-2020) y CEPAL (anual 1980-1985) (2004=100).xlsx
+++ b/data/TOT elaboración propia INDEC (1986-2020) y CEPAL (anual 1980-1985) (2004=100).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2081F136-6F44-AC4C-A9B9-E04EA1DE4B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FBDBE-C8B0-A049-856B-82CB61CA3C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27180" yWindow="-80" windowWidth="25540" windowHeight="13080" xr2:uid="{35D019DA-7551-6F4D-A79B-EE74BB00CB06}"/>
   </bookViews>
@@ -63,10 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,11 +106,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +428,7 @@
   <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2:C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
